--- a/data/pop.xlsx
+++ b/data/pop.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjribeiro/Documents/courses/AE4423 Airline Planning &amp; Optimisation/2024/assignments/To Students/Assignment1/Data/Exercise1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gijsvdklink/Documents/Airline planning and optimisation /Assignment_1/airline planning 2/Airline_planning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99F3A30-56C0-1B4A-82F3-847404867FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E3E9A3-AAC3-2A4E-A5EA-CA921D3C0832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2660" windowWidth="27640" windowHeight="16940" xr2:uid="{0DAFC0D1-5A44-4F45-A424-CD7C4B7C4E82}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{0DAFC0D1-5A44-4F45-A424-CD7C4B7C4E82}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" calcOnSave="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -530,7 +530,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
